--- a/parser/time_tracker.xlsx
+++ b/parser/time_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E06D93-87A6-443A-8D1A-B12DEE05C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0916C9-8199-48EB-8075-533BE0FCCFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="27" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-07-20" sheetId="121" r:id="rId1"/>
@@ -6132,6 +6132,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6265,7 +6268,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45881.634175133287</v>
+        <v>45881.63417824074</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -6393,8 +6396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8F00-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,7 +6743,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="A11" sqref="A11:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7199,10 +7202,13 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7256,7 +7262,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45884.521772722335</v>
+        <v>45884.521770833337</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -7572,10 +7578,13 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7684,7 +7693,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45885.46609085099</v>
+        <v>45885.466087962966</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -7709,7 +7718,7 @@
         <v>45885.674716072368</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7802,7 +7811,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="A4" sqref="A4:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8246,10 +8255,13 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="A11" sqref="A11:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8358,7 +8370,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45887.110293076097</v>
+        <v>45887.110289351855</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -8369,7 +8381,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45887.649366833961</v>
+        <v>45887.649363425924</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -8454,10 +8466,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="A12" sqref="A12:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8599,7 +8614,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45888.811271632258</v>
+        <v>45888.811273148145</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -8695,7 +8710,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="A5" sqref="A5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8836,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-9700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8911,7 +8926,7 @@
         <v>45890.862685185188</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>132</v>
@@ -8922,7 +8937,7 @@
         <v>45890.880610756962</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>131</v>
